--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/139.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/139.xlsx
@@ -479,13 +479,13 @@
         <v>-16.17517872520538</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.049823458057968</v>
+        <v>-5.875916594794936</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.720695697652819</v>
+        <v>-3.770666236839557</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.565779726875403</v>
+        <v>-7.942089120863064</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.93932813859646</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.732191924487021</v>
+        <v>-6.55733170488494</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.736262295517077</v>
+        <v>-3.753461821674883</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.476340235252062</v>
+        <v>-7.84672415291702</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.64605332953263</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.199761874218165</v>
+        <v>-7.050422270461381</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.830727686199607</v>
+        <v>-3.86064351921826</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.031264606115592</v>
+        <v>-7.434668876159695</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.32333890188239</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.74609372457531</v>
+        <v>-7.601203117067419</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.568603583029962</v>
+        <v>-3.61096682753178</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.638183565008763</v>
+        <v>-7.045709267841676</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.96712393428473</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.497030512312845</v>
+        <v>-8.368342073561911</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.562971447119276</v>
+        <v>-3.617307869438169</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.253628951877834</v>
+        <v>-6.626608932189125</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.58575507933043</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.216252312504704</v>
+        <v>-9.120207772604159</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.478318293218644</v>
+        <v>-3.553677445065271</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.793006280904575</v>
+        <v>-6.186749873379655</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.17260896790202</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.858560256666255</v>
+        <v>-9.758384505963168</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.361104353584358</v>
+        <v>-3.452475002920131</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.220122234253216</v>
+        <v>-5.642153620460264</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.71880386813118</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.50693056934278</v>
+        <v>-10.41353587116411</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.241621914763823</v>
+        <v>-3.327164867914234</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.693043292937982</v>
+        <v>-5.133589348150037</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.22148153132195</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.77218852591412</v>
+        <v>-10.70496957050091</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.065573666493083</v>
+        <v>-3.175722991204677</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.46963034614057</v>
+        <v>-4.951014275711966</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.67028795008673</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.51669138061479</v>
+        <v>-11.43423339079741</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.125366220475453</v>
+        <v>-3.222677013154528</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.838009770990094</v>
+        <v>-4.36219695568133</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.07037467942596</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.11939348014747</v>
+        <v>-12.04945623691625</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.769666525873056</v>
+        <v>-2.89090900716568</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.277304240444219</v>
+        <v>-3.795624616895158</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.40703971682778</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.04995726918233</v>
+        <v>-12.95517898206031</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.599993542556772</v>
+        <v>-2.763472154172675</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.512697789506789</v>
+        <v>-3.040502839279543</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.68049093187235</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.52930483645587</v>
+        <v>-13.47036296966834</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.461898654593893</v>
+        <v>-2.601445577596246</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.010259442800807</v>
+        <v>-2.542601490946058</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.879628120466958</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.37151449339184</v>
+        <v>-14.31255795958371</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.262857407028052</v>
+        <v>-2.384359005684622</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.307562485819122</v>
+        <v>-1.860189023455203</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.002294335504473</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.00437198727965</v>
+        <v>-14.91482004849836</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.931969422275248</v>
+        <v>-2.065566423920566</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.107250096467883</v>
+        <v>-1.65882060862071</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.062153592729999</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.04092944518922</v>
+        <v>-15.98305827090555</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.555921681092751</v>
+        <v>-1.684086996108926</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.733979311185793</v>
+        <v>-1.279067000233091</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.077035392334456</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.76887323363165</v>
+        <v>-16.76053747692356</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.372945710091592</v>
+        <v>-1.483574157476143</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.561632041113308</v>
+        <v>-1.117759107666099</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.091694274798146</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.59510072711968</v>
+        <v>-17.59240688433601</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.878310218345206</v>
+        <v>-0.9824558426242281</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.230489828003424</v>
+        <v>-0.803117292732054</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.142961526175641</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.36134988436439</v>
+        <v>-18.34884869380569</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5817381727912783</v>
+        <v>-0.6773280350531993</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.417245001312708</v>
+        <v>-0.9825487337546995</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.282100972399077</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.78067511433282</v>
+        <v>-18.82517485483548</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1716433877875855</v>
+        <v>-0.2554898555551768</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.684859459193899</v>
+        <v>-1.295469618271591</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.544181293798076</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.36134734892318</v>
+        <v>-19.43647182844019</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3053525671829714</v>
+        <v>0.2230216915441237</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.777970594974294</v>
+        <v>-1.408953245666421</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.951474594961612</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.82916174899767</v>
+        <v>-19.8752015266634</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4826426231979082</v>
+        <v>0.4231336316138194</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.77593187911079</v>
+        <v>-1.419850841972774</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.514291418865842</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.0464536591977</v>
+        <v>-20.08577105242143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5602507182033161</v>
+        <v>0.5366710380841853</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.275079924195339</v>
+        <v>-1.925100367627232</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.219372603809272</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.61706431765595</v>
+        <v>-20.64620279858276</v>
       </c>
       <c r="F25" t="n">
-        <v>0.851004845585615</v>
+        <v>0.8385427670818487</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.580642853377523</v>
+        <v>-2.27333454874385</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.050924837781993</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.61586162196668</v>
+        <v>-20.67281855196624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8880586286299633</v>
+        <v>0.8916569376840128</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.00139567335109</v>
+        <v>-2.744737479858657</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.976203570405507</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.86124087661715</v>
+        <v>-20.92760425582865</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7988880323843016</v>
+        <v>0.8142004018914792</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.324901257734853</v>
+        <v>-3.084543013136713</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.967255078689071</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.97888504885572</v>
+        <v>-21.01997226256527</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8461842848148368</v>
+        <v>0.8498608179787569</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.689112713292549</v>
+        <v>-3.445429944024907</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.995204488401396</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.84523915714173</v>
+        <v>-20.89356699002118</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6963460023576274</v>
+        <v>0.7192314435016564</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.971047072286933</v>
+        <v>-3.753540045784754</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.037314539278407</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.49256575778995</v>
+        <v>-20.53898198898445</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7188696569935047</v>
+        <v>0.737707000451728</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.562983578698661</v>
+        <v>-4.383698807882022</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.081652131167981</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.43579949905821</v>
+        <v>-20.47903298678234</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7067840320184909</v>
+        <v>0.7477196865151697</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.710049794262329</v>
+        <v>-4.551386854410338</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.120522728708274</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.28700257506365</v>
+        <v>-20.3418914551585</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4803447899704582</v>
+        <v>0.5098743914466245</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.1663261381309</v>
+        <v>-5.038004374894983</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.154245779230493</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.89030855788217</v>
+        <v>-19.9452609950663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3677509618254069</v>
+        <v>0.4109062254396652</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.262512459230585</v>
+        <v>-5.119900128922676</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.185649257129775</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.58057530584251</v>
+        <v>-19.64421550822914</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3044432119057253</v>
+        <v>0.3575867165490907</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.547341110290183</v>
+        <v>-5.423052777719471</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.218778123841472</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.03766087128534</v>
+        <v>-19.07126790448851</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1107065367904866</v>
+        <v>0.1486158960365451</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.371072856710431</v>
+        <v>-5.248916131133694</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.260531681068905</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.65571698782134</v>
+        <v>-18.70673866348447</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07447899590664683</v>
+        <v>0.09632307858802282</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.498534154737771</v>
+        <v>-5.386678566629624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.315060989310951</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.24061585978593</v>
+        <v>-18.25700869981069</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1296905504547173</v>
+        <v>0.1342715498890167</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.096095554487667</v>
+        <v>-4.975889542650829</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.386195708930562</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.77657088400583</v>
+        <v>-17.80813431233863</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.08707334700369072</v>
+        <v>-0.107924961291083</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.954871702129962</v>
+        <v>-4.820336011166196</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.475923687637239</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.21507822335438</v>
+        <v>-17.27348718839341</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1062969220044003</v>
+        <v>-0.1201865905133057</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.949821358036439</v>
+        <v>-4.830128691920627</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.584207697427681</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.75079857524467</v>
+        <v>-16.78883504866927</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1706215853524003</v>
+        <v>-0.212598598311732</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.832685642512024</v>
+        <v>-4.660749049016358</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.713981934715162</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.03759025349911</v>
+        <v>-16.05741517634446</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3405487970257631</v>
+        <v>-0.4051423557514434</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.949410681459618</v>
+        <v>-4.754916210280007</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.864834612058875</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.40374518022419</v>
+        <v>-15.41081468415375</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4389253932018257</v>
+        <v>-0.5067065844047346</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.961589197565103</v>
+        <v>-4.697416600518221</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.039680273753829</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.92047174043652</v>
+        <v>-14.90757942932846</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5427385650138977</v>
+        <v>-0.6083734822022309</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.584358316720812</v>
+        <v>-4.299979454292971</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.235762994006766</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.33254910866253</v>
+        <v>-14.32982593183766</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5842364553002718</v>
+        <v>-0.6549412726095958</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.752721046196762</v>
+        <v>-4.470596015934569</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.448998820667984</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.81287701275067</v>
+        <v>-13.80782666865715</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7227664648743068</v>
+        <v>-0.7863773332197372</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.845152610022657</v>
+        <v>-4.562504456025702</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.672964682018334</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.88506573458189</v>
+        <v>-12.85547257601645</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.8881420111545719</v>
+        <v>-0.951136864634771</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.814214974568818</v>
+        <v>-4.460299767472845</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.897636514820337</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.53194254659835</v>
+        <v>-12.49003886874202</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.008372468025744</v>
+        <v>-1.08370228583117</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.012239308706341</v>
+        <v>-4.650003011922879</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.118037176190316</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.77258200002912</v>
+        <v>-11.72544219581833</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.130059848943257</v>
+        <v>-1.200153540394217</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.048271289315505</v>
+        <v>-4.621016090208941</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.325118620304178</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.36419836742885</v>
+        <v>-11.3263476762652</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.231599632562214</v>
+        <v>-1.301962219390854</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.000305242944203</v>
+        <v>-4.593085193978256</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.517266998739927</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.80107277848385</v>
+        <v>-10.75165469707308</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.475790858544015</v>
+        <v>-1.545322314205279</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.235950484922636</v>
+        <v>-4.825850810912076</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.692778646200757</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.374673155579</v>
+        <v>-10.337937157981</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.439181975124556</v>
+        <v>-1.494496198816831</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.422143422442224</v>
+        <v>-5.004265338506404</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.855670187466279</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.820377113035649</v>
+        <v>-9.813341832154158</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.556503472909914</v>
+        <v>-1.610732337077734</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.444300401563083</v>
+        <v>-5.01070416055013</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.013444919209078</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.282816140997751</v>
+        <v>-9.265137492166986</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.507867632597844</v>
+        <v>-1.578342666584423</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.586448276218635</v>
+        <v>-5.153155153631431</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.171403983574105</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.726804057044115</v>
+        <v>-8.741158181205376</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.600631648890688</v>
+        <v>-1.673996085935614</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.520935584201975</v>
+        <v>-5.098725840182067</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.340694222092916</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.011019228679697</v>
+        <v>-8.005079085336396</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.768383252508274</v>
+        <v>-1.838344940773827</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.698826988061542</v>
+        <v>-5.276944807501718</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.523646745907169</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.648338032271345</v>
+        <v>-7.652122123586338</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.857808077111015</v>
+        <v>-1.941913662242553</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.695649133598048</v>
+        <v>-5.291611828102463</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.725852828095623</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.350279728629876</v>
+        <v>-7.317577161697082</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.756248737464591</v>
+        <v>-1.831534554208214</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.573976419701135</v>
+        <v>-5.193186341857731</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.945337872599044</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.793597850735472</v>
+        <v>-6.813799227109564</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.809441132176625</v>
+        <v>-1.87871835948081</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.807397163555123</v>
+        <v>-5.425585283276533</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.179587356358621</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.347153299676267</v>
+        <v>-6.325353218056693</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.974146884516123</v>
+        <v>-2.07437152528788</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.770030484071292</v>
+        <v>-5.421830526002743</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.42423741438027</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.241770756659915</v>
+        <v>-6.23608973068056</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.033142530379186</v>
+        <v>-2.112207549430934</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.62846929023977</v>
+        <v>-5.312091877867969</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.67037997693417</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.10679016607126</v>
+        <v>-6.126131077236776</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.12262602306433</v>
+        <v>-2.182389243005499</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.614872962142879</v>
+        <v>-5.285295231230409</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.914392618629406</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.866441699486854</v>
+        <v>-5.87107647799669</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.140901130732858</v>
+        <v>-2.203128410134952</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.746793034432845</v>
+        <v>-5.41416456323542</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.145906666834568</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.551609213284999</v>
+        <v>-5.585646479092461</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.29289057621151</v>
+        <v>-2.341883314024865</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.56225747024114</v>
+        <v>-5.268574827745559</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.362221769159429</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.399551321710211</v>
+        <v>-5.429540489831867</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.456897200569039</v>
+        <v>-2.522634786901577</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.366183849843517</v>
+        <v>-5.083613919956433</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.557936732431259</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.218931852018905</v>
+        <v>-5.258664810826323</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.282271653296571</v>
+        <v>-2.342802447315845</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.433774369778615</v>
+        <v>-5.125454040723492</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.731749551943874</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.231843719154427</v>
+        <v>-5.244217795534589</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.376380146477817</v>
+        <v>-2.445510703575994</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.471488168749998</v>
+        <v>-5.181741176782283</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.882804962249846</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.032064231551682</v>
+        <v>-5.052832732722337</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.472527355522566</v>
+        <v>-2.569114575185338</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.382909142335232</v>
+        <v>-5.103042833245553</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.008424835071143</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.121102824611937</v>
+        <v>-5.158875291665722</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.535131088453412</v>
+        <v>-2.635228615046628</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.26472229033443</v>
+        <v>-4.985354659945177</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.111145655328768</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.238047868868542</v>
+        <v>-5.247899217705376</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.539751199942647</v>
+        <v>-2.626931970393474</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.060484028469059</v>
+        <v>-4.76389731589453</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.187399310587972</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.034146948476987</v>
+        <v>-5.060156465008975</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.486998815848634</v>
+        <v>-2.603093172910397</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.074711038451781</v>
+        <v>-4.816136354267516</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.23980929001242</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.535191928225899</v>
+        <v>-5.528445098749557</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.587717246313949</v>
+        <v>-2.698736814247854</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.907511892610157</v>
+        <v>-4.634798200566774</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.265842770935372</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.588403878965401</v>
+        <v>-5.600474836919815</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.548204292815543</v>
+        <v>-2.67549447560254</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.653444872757188</v>
+        <v>-4.41706139074185</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.26588385402057</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.822406414636552</v>
+        <v>-5.814510668546484</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.664142201657564</v>
+        <v>-2.772673265096209</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.655332029407817</v>
+        <v>-4.399177403622675</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.236601024413385</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.98883798640007</v>
+        <v>-5.973246943501478</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.549167427168325</v>
+        <v>-2.65888651927563</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.198576562866288</v>
+        <v>-3.952913745817546</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.174498677186417</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.442498711594842</v>
+        <v>-6.435517209788888</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.750076275357328</v>
+        <v>-2.880857209047302</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.020822051198994</v>
+        <v>-3.772025380748559</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.077956825704447</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.631512606076641</v>
+        <v>-6.630026347989099</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.801841080064223</v>
+        <v>-2.929282822064095</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.638760831570192</v>
+        <v>-3.406723676659541</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.941933292150835</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.210478577270443</v>
+        <v>-7.21823254216137</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.801401069446201</v>
+        <v>-2.940126639294912</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.293890287178011</v>
+        <v>-3.113647271015458</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.76746794812625</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.884398839833467</v>
+        <v>-7.876107084187179</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.884778192554568</v>
+        <v>-3.02684784310025</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.99816403981206</v>
+        <v>-2.834695206209891</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.550096686998004</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.599034751584158</v>
+        <v>-8.620859278238067</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.870472958461975</v>
+        <v>-3.03394668107101</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.592772479414339</v>
+        <v>-2.455254494261756</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.293074865676512</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.192183731698881</v>
+        <v>-9.216310980587107</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.952955393313697</v>
+        <v>-3.112904141971687</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.244205845830771</v>
+        <v>-2.125569205198213</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.995768253996688</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.908521017839259</v>
+        <v>-9.945882808316224</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.912259300153497</v>
+        <v>-3.06624346043385</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.893791167651509</v>
+        <v>-1.762315994986432</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.663441112326859</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.7988189463182</v>
+        <v>-10.84089373941488</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.055590314470843</v>
+        <v>-3.210786948454191</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.818407570770547</v>
+        <v>-1.709069821198862</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.301587631752367</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.72106653467244</v>
+        <v>-11.73136767214103</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.053052919906914</v>
+        <v>-3.229286950438597</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.546617901025012</v>
+        <v>-1.446359037205187</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.914088866427499</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.75065226878979</v>
+        <v>-12.79821252759114</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.115671319858361</v>
+        <v>-3.259373898697592</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.283022206788425</v>
+        <v>-1.213441861058492</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.509276731527881</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.10636898397844</v>
+        <v>-14.16843003714706</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.072085823639814</v>
+        <v>-3.237515148995615</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.169284351036516</v>
+        <v>-1.090366002190775</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.087933170532212</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.30663483682666</v>
+        <v>-15.38102596531364</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.018795648790441</v>
+        <v>-3.161060859610799</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.210958245570099</v>
+        <v>-1.107736643588924</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.659346808910454</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.75303774038971</v>
+        <v>-16.81632593428193</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.936811892639144</v>
+        <v>-3.088816005138397</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.029610313855623</v>
+        <v>-0.9515524302184588</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.226148928935495</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.13371772464083</v>
+        <v>-18.20178736724889</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.953106952526571</v>
+        <v>-3.096154404445636</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.340228476138197</v>
+        <v>-1.267455608924168</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.797540602968274</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.64229901753731</v>
+        <v>-19.71896842322427</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.933267362660631</v>
+        <v>-3.059227735579828</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.178734801310263</v>
+        <v>-1.145875786157727</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.382008725828753</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.4242686854248</v>
+        <v>-21.49880159511092</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.684925369848819</v>
+        <v>-2.813315579180872</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.389768782720646</v>
+        <v>-1.34500992485404</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.98704978563256</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.00184853223405</v>
+        <v>-23.09645081510886</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.657859827833578</v>
+        <v>-2.78674382685919</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.53622387242595</v>
+        <v>-1.483456821311337</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.624655600742968</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.86565039705997</v>
+        <v>-24.94788349256148</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.482950718162829</v>
+        <v>-2.598184610016014</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.829407836221106</v>
+        <v>-1.770793532893663</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.299480761646576</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.73659021191158</v>
+        <v>-26.83901979478032</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.397960222788379</v>
+        <v>-2.497798632017649</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.24694857868311</v>
+        <v>-2.204252881714342</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.021202420457758</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.74853387381189</v>
+        <v>-28.86812142628006</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.567017191239431</v>
+        <v>-2.678667441059168</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.425001319769286</v>
+        <v>-2.374008978147363</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.790878701055831</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.93807071015288</v>
+        <v>-31.08510759167535</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.486612584306148</v>
+        <v>-2.570454163066872</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.759717396898884</v>
+        <v>-2.711066889566213</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.614739711287703</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.06052548327293</v>
+        <v>-33.19607564316158</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.59483075130531</v>
+        <v>-2.686176955606749</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.064111853439876</v>
+        <v>-3.023357092197272</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.48989806477446</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.15783853857988</v>
+        <v>-35.26439199874086</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.715051430162749</v>
+        <v>-2.798203658955238</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.392144658182401</v>
+        <v>-3.349370737103762</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.423711324030607</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.27656788846734</v>
+        <v>-37.39634122319646</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.855634822620888</v>
+        <v>-2.935257188455465</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.651961150110862</v>
+        <v>-3.62049061290853</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.405096752386465</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.64472703519451</v>
+        <v>-39.7509015973233</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.830050649686322</v>
+        <v>-2.873132578197577</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.89943778870723</v>
+        <v>-3.841170604867338</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.452364366810751</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.85684619425378</v>
+        <v>-41.98451038606609</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.89596424026607</v>
+        <v>-2.90306307823683</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.326414314422379</v>
+        <v>-4.24193227576209</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.535754366229049</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.87391597985405</v>
+        <v>-44.00997459645686</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.93699278589322</v>
+        <v>-2.919397250179193</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.651200818605274</v>
+        <v>-4.542860426434438</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.711005368548715</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.33069082054747</v>
+        <v>-46.48677236477373</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.138273198604108</v>
+        <v>-3.082856305767627</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.832695420525758</v>
+        <v>-4.722668320985837</v>
       </c>
     </row>
   </sheetData>
